--- a/data/empleados.xlsx
+++ b/data/empleados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t xml:space="preserve">id_empleado</t>
   </si>
@@ -31,9 +31,15 @@
     <t xml:space="preserve">direccion</t>
   </si>
   <si>
+    <t xml:space="preserve">localidad</t>
+  </si>
+  <si>
     <t xml:space="preserve">horario_ingreso</t>
   </si>
   <si>
+    <t xml:space="preserve">horario_salida</t>
+  </si>
+  <si>
     <t xml:space="preserve">preferencia</t>
   </si>
   <si>
@@ -43,10 +49,61 @@
     <t xml:space="preserve">Ana Pérez</t>
   </si>
   <si>
-    <t xml:space="preserve">Av Corrientes 1234, CABA</t>
+    <t xml:space="preserve">Av Corrientes 1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABA</t>
   </si>
   <si>
     <t xml:space="preserve">ninguna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emilio mitre 772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomas valle 772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Matanza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrientes 2445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Av Militar 3900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ciudadela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamín Franklin 2298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paso del rey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jorge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roseti 1601</t>
   </si>
 </sst>
 </file>
@@ -56,7 +113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -81,6 +138,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -135,23 +200,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -344,51 +409,188 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.3"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5"/>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
